--- a/flyers/Grimbergen_2019-2020.xlsx
+++ b/flyers/Grimbergen_2019-2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="32">
   <si>
     <t xml:space="preserve"> Juli 2019</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve"> December 2019</t>
   </si>
   <si>
+    <t xml:space="preserve">Karine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geen les</t>
   </si>
   <si>
@@ -90,16 +93,41 @@
   <si>
     <t xml:space="preserve">Rode Kruis</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Januari 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Februari 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maart 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mei 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juni 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feestdag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brugdag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-813]H:MM"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="[$-813]D\/MMM\/YY"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -162,7 +190,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +225,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -285,7 +319,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,10 +388,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,15 +416,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,9 +444,97 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -492,29 +614,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T6" activeCellId="3" sqref="C:F J:M Q:S T:T"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.9" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="0.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="0.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="10.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -542,7 +664,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -594,7 +716,7 @@
         <v>0.854166666666667</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -628,7 +750,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -666,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -704,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -742,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -776,7 +898,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -819,7 +941,7 @@
       </c>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -853,7 +975,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -888,7 +1010,7 @@
       <c r="T10" s="10"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -926,7 +1048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -971,7 +1093,7 @@
       </c>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1177,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1265,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1305,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1477,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="7" t="n">
@@ -1403,7 +1525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P23" s="7" t="n">
@@ -1443,7 +1565,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1577,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="7" t="n">
@@ -1472,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="17" t="s">
+      <c r="O24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P24" s="7" t="n">
@@ -1483,7 +1605,7 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="N25" s="9"/>
-      <c r="O25" s="17" t="s">
+      <c r="O25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="P25" s="7" t="n">
@@ -1527,7 +1649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="P26" s="7" t="n">
@@ -1571,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1716,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="17" t="s">
+      <c r="O27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="7" t="n">
@@ -1609,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1754,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="17" t="s">
+      <c r="O28" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P28" s="7" t="n">
@@ -1643,7 +1765,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
@@ -1666,14 +1788,14 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="17" t="s">
+      <c r="O29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="Q29" s="14" t="s">
-        <v>13</v>
+      <c r="Q29" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="R29" s="11" t="s">
         <v>9</v>
@@ -1681,11 +1803,11 @@
       <c r="S29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T29" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T29" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1830,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="17" t="s">
+      <c r="O30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="P30" s="7" t="n">
@@ -1719,7 +1841,7 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1864,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P31" s="7" t="n">
@@ -1753,7 +1875,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1898,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="17" t="s">
+      <c r="O32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="7" t="n">
@@ -1791,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>10</v>
       </c>
@@ -1814,36 +1936,36 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="6"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
+    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1861,17 +1983,17 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="22"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="23" t="s">
+      <c r="R35" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +2045,7 @@
         <v>0.854166666666667</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +2083,7 @@
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +2163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -2051,7 +2173,7 @@
       <c r="C40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -2084,14 +2206,14 @@
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
@@ -2129,7 +2251,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
@@ -2149,11 +2271,11 @@
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>9</v>
+      <c r="L42" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="6" t="s">
@@ -2175,7 +2297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2335,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -2259,7 +2381,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
@@ -2268,11 +2390,11 @@
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>9</v>
+      <c r="E45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="6" t="s">
@@ -2301,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
@@ -2366,11 +2488,11 @@
         <v>11</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K47" s="27"/>
       <c r="L47" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47" s="27"/>
       <c r="N47" s="9"/>
@@ -2382,14 +2504,14 @@
       </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S47" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T47" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
@@ -2427,7 +2549,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -2447,11 +2569,11 @@
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>9</v>
+      <c r="L49" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="N49" s="9"/>
       <c r="O49" s="6" t="s">
@@ -2473,7 +2595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2633,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2679,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>10</v>
       </c>
@@ -2566,11 +2688,11 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>9</v>
+      <c r="E52" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="6" t="s">
@@ -2581,7 +2703,7 @@
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14" t="s">
@@ -2603,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +2745,7 @@
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="14" t="s">
@@ -2645,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>8</v>
       </c>
@@ -2695,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2855,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -2753,11 +2875,11 @@
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>9</v>
+      <c r="L56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="N56" s="9"/>
       <c r="O56" s="6" t="s">
@@ -2779,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>4</v>
       </c>
@@ -2816,11 +2938,8 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-    </row>
-    <row r="58" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -2865,11 +2984,8 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-    </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>10</v>
       </c>
@@ -2877,11 +2993,11 @@
         <v>23</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="9"/>
@@ -2906,11 +3022,8 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-    </row>
-    <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
@@ -2943,11 +3056,8 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-    </row>
-    <row r="61" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>8</v>
       </c>
@@ -2992,11 +3102,8 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-    </row>
-    <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>11</v>
       </c>
@@ -3033,11 +3140,8 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-    </row>
-    <row r="63" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3074,11 +3178,8 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-    </row>
-    <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>4</v>
       </c>
@@ -3111,11 +3212,8 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-    </row>
-    <row r="65" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>7</v>
       </c>
@@ -3156,11 +3254,8 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-    </row>
-    <row r="66" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>10</v>
       </c>
@@ -3193,11 +3288,8 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-    </row>
-    <row r="67" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="67" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
@@ -3226,17 +3318,2737 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="31"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="32"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S69" s="32"/>
+      <c r="T69" s="33"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" s="37"/>
+      <c r="J70" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="L70" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M70" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="N70" s="34"/>
+      <c r="O70" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R70" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="S70" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="T70" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="38"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P71" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T72" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N73" s="34"/>
+      <c r="O73" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P73" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N74" s="34"/>
+      <c r="O74" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P74" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="34"/>
+      <c r="O75" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P75" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="34"/>
+      <c r="H76" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="34"/>
+      <c r="H77" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="34"/>
+      <c r="O77" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P77" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="34"/>
+      <c r="H78" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P79" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T79" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="34"/>
+      <c r="H80" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N80" s="34"/>
+      <c r="O80" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" s="34"/>
+      <c r="O81" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T81" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" s="34"/>
+      <c r="O82" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P82" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="34"/>
+      <c r="H83" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T83" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="34"/>
+      <c r="H84" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="34"/>
+      <c r="O84" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P84" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="34"/>
+      <c r="H85" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="37" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P85" s="37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J86" s="38"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P86" s="37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T86" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="34"/>
+      <c r="H87" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N87" s="34"/>
+      <c r="O87" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P87" s="37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T87" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N88" s="34"/>
+      <c r="O88" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P88" s="37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T88" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M89" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" s="34"/>
+      <c r="O89" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="34"/>
+      <c r="H90" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P90" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T90" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="34"/>
+      <c r="H91" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" s="34"/>
+      <c r="O91" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" s="37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="34"/>
+      <c r="H92" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="37" t="n">
+        <v>22</v>
+      </c>
+      <c r="J92" s="38"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P92" s="37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="40"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P93" s="37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T93" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="34"/>
+      <c r="H94" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P94" s="37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T94" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P95" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T95" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P96" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="34"/>
+      <c r="H97" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="37" t="n">
+        <v>27</v>
+      </c>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="38"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P97" s="37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T97" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="34"/>
+      <c r="H98" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="37" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P98" s="37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="34"/>
+      <c r="H99" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="45" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" s="46"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P99" s="37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="38"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="41"/>
+      <c r="S100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T100" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="34"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P101" s="37" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T101" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="34"/>
+      <c r="T102" s="34"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="32"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L103" s="32"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S103" s="32"/>
+      <c r="T103" s="33"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D104" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E104" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="F104" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="G104" s="34"/>
+      <c r="H104" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" s="37"/>
+      <c r="J104" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="L104" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M104" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="N104" s="34"/>
+      <c r="O104" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="R104" s="8" t="n">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="S104" s="8" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="T104" s="8" t="n">
+        <v>0.854166666666667</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="34"/>
+      <c r="H105" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M105" s="48"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P105" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R105" s="27"/>
+      <c r="S105" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T105" s="27"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P106" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T106" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="34"/>
+      <c r="H107" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P107" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T107" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N108" s="34"/>
+      <c r="O108" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P108" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N109" s="34"/>
+      <c r="O109" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P109" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="34"/>
+      <c r="O110" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P110" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="38"/>
+      <c r="T110" s="38"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P111" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q111" s="38"/>
+      <c r="R111" s="38"/>
+      <c r="S111" s="38"/>
+      <c r="T111" s="38"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I112" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N112" s="34"/>
+      <c r="O112" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P112" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T112" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="38"/>
+      <c r="M113" s="38"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P113" s="37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T113" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
+      <c r="M114" s="38"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P114" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="T114" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N115" s="34"/>
+      <c r="O115" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P115" s="37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="37"/>
+      <c r="T115" s="37"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N116" s="34"/>
+      <c r="O116" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P116" s="37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q116" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T116" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="34"/>
+      <c r="O117" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P117" s="37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="38"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I118" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P118" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="40"/>
+      <c r="T118" s="38"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="37" t="n">
+        <v>15</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N119" s="34"/>
+      <c r="O119" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="37" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T119" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="38"/>
+      <c r="M120" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N120" s="34"/>
+      <c r="O120" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P120" s="37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T120" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="37" t="n">
+        <v>17</v>
+      </c>
+      <c r="J121" s="38"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="38"/>
+      <c r="M121" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N121" s="34"/>
+      <c r="O121" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P121" s="37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T121" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J122" s="37"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N122" s="34"/>
+      <c r="O122" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P122" s="37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J123" s="37"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N123" s="34"/>
+      <c r="O123" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P123" s="37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="34"/>
+      <c r="H124" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124" s="34"/>
+      <c r="O124" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P124" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="38"/>
+      <c r="T124" s="38"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="34"/>
+      <c r="H125" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" s="37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J125" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="47"/>
+      <c r="L125" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="48"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P125" s="37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q125" s="38"/>
+      <c r="R125" s="38"/>
+      <c r="S125" s="38"/>
+      <c r="T125" s="38"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="34"/>
+      <c r="H126" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="37" t="n">
+        <v>22</v>
+      </c>
+      <c r="J126" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="51"/>
+      <c r="L126" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M126" s="51"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P126" s="37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T126" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J127" s="38"/>
+      <c r="K127" s="38"/>
+      <c r="L127" s="38"/>
+      <c r="M127" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N127" s="34"/>
+      <c r="O127" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P127" s="37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T127" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="34"/>
+      <c r="H128" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J128" s="38"/>
+      <c r="K128" s="38"/>
+      <c r="L128" s="38"/>
+      <c r="M128" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N128" s="34"/>
+      <c r="O128" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P128" s="37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="T128" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N129" s="34"/>
+      <c r="O129" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N130" s="34"/>
+      <c r="O130" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P130" s="37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q130" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T130" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="34"/>
+      <c r="H131" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="37" t="n">
+        <v>27</v>
+      </c>
+      <c r="J131" s="37"/>
+      <c r="K131" s="37"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N131" s="34"/>
+      <c r="O131" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="P131" s="37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q131" s="38"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="38"/>
+      <c r="T131" s="38"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="34"/>
+      <c r="H132" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I132" s="37" t="n">
+        <v>28</v>
+      </c>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N132" s="34"/>
+      <c r="O132" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P132" s="37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q132" s="38"/>
+      <c r="R132" s="38"/>
+      <c r="S132" s="38"/>
+      <c r="T132" s="38"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="34"/>
+      <c r="H133" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="37" t="n">
+        <v>29</v>
+      </c>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N133" s="34"/>
+      <c r="O133" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="P133" s="37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q133" s="37"/>
+      <c r="R133" s="37"/>
+      <c r="S133" s="37"/>
+      <c r="T133" s="37"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J134" s="38"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N134" s="34"/>
+      <c r="O134" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P134" s="37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q134" s="37"/>
+      <c r="R134" s="37"/>
+      <c r="S134" s="37"/>
+      <c r="T134" s="37"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" s="37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J135" s="38"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N135" s="53"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="37"/>
+      <c r="R135" s="37"/>
+      <c r="S135" s="37"/>
+      <c r="T135" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.0805555555555556" right="0.0798611111111111" top="0.0798611111111111" bottom="0.0798611111111111" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="68" man="true" max="16383" min="0"/>
+  </rowBreaks>
 </worksheet>
 </file>